--- a/data-dig-prop-stats/dat.xlsx
+++ b/data-dig-prop-stats/dat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/GitHub/Pedersen-2024-MAG/data-dig-prop-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{7A56C225-DD08-4D66-98D8-C216CC569554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E85264-992B-473F-A1B4-4A61B526261C}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{7A56C225-DD08-4D66-98D8-C216CC569554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4374CC52-357C-47FA-AD62-151D59C509F0}"/>
   <bookViews>
-    <workbookView xWindow="-18105" yWindow="1005" windowWidth="12045" windowHeight="15345" activeTab="3" xr2:uid="{C233AD18-B618-41A4-BC30-2DA8BD150481}"/>
+    <workbookView xWindow="-30225" yWindow="150" windowWidth="26310" windowHeight="20220" activeTab="3" xr2:uid="{C233AD18-B618-41A4-BC30-2DA8BD150481}"/>
   </bookViews>
   <sheets>
     <sheet name="slurry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="86">
   <si>
     <t>Straw amount</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>temp.app</t>
+  </si>
+  <si>
+    <t>temp.avg</t>
+  </si>
+  <si>
+    <t>Temperature at application [C]</t>
+  </si>
+  <si>
+    <t>Average temperature over measuring period [C]</t>
   </si>
 </sst>
 </file>
@@ -763,7 +775,7 @@
   <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4895,12 +4907,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -6444,15 +6460,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD706F-A0B7-4D5E-B189-117437D2C46D}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:7" ht="45">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -6468,8 +6488,14 @@
       <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6485,8 +6511,14 @@
       <c r="E2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -6502,8 +6534,14 @@
       <c r="E3">
         <v>0.372</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>9.4</v>
+      </c>
+      <c r="G3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -6519,8 +6557,14 @@
       <c r="E4">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>9.4</v>
+      </c>
+      <c r="G4">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -6536,8 +6580,14 @@
       <c r="E5">
         <v>0.35599999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>9.4</v>
+      </c>
+      <c r="G5">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -6548,13 +6598,19 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0.52100000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>9.4</v>
+      </c>
+      <c r="G6">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -6570,8 +6626,14 @@
       <c r="E7">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>9.4</v>
+      </c>
+      <c r="G7">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6587,8 +6649,14 @@
       <c r="E8">
         <v>0.53500000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>9.4</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6604,8 +6672,14 @@
       <c r="E9">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>9.4</v>
+      </c>
+      <c r="G9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6621,8 +6695,14 @@
       <c r="E10">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>9.4</v>
+      </c>
+      <c r="G10">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6638,8 +6718,14 @@
       <c r="E11">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>9.4</v>
+      </c>
+      <c r="G11">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6655,8 +6741,14 @@
       <c r="E12">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>9.4</v>
+      </c>
+      <c r="G12">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6672,8 +6764,14 @@
       <c r="E13">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>9.4</v>
+      </c>
+      <c r="G13">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6689,8 +6787,14 @@
       <c r="E14">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>9.4</v>
+      </c>
+      <c r="G14">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6706,8 +6810,14 @@
       <c r="E15">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>9.4</v>
+      </c>
+      <c r="G15">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6723,8 +6833,14 @@
       <c r="E16">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>9.4</v>
+      </c>
+      <c r="G16">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6740,8 +6856,14 @@
       <c r="E17">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>9.4</v>
+      </c>
+      <c r="G17">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -6757,8 +6879,14 @@
       <c r="E18">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>16.7</v>
+      </c>
+      <c r="G18">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -6774,8 +6902,14 @@
       <c r="E19">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>16.7</v>
+      </c>
+      <c r="G19">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -6791,8 +6925,14 @@
       <c r="E20">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>16.7</v>
+      </c>
+      <c r="G20">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -6808,8 +6948,14 @@
       <c r="E21">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>16.7</v>
+      </c>
+      <c r="G21">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -6825,8 +6971,14 @@
       <c r="E22">
         <v>0.35399999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>16.7</v>
+      </c>
+      <c r="G22">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -6842,8 +6994,14 @@
       <c r="E23">
         <v>0.373</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>16.7</v>
+      </c>
+      <c r="G23">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -6859,8 +7017,14 @@
       <c r="E24">
         <v>0.45500000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>16.7</v>
+      </c>
+      <c r="G24">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -6876,8 +7040,14 @@
       <c r="E25">
         <v>0.376</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>16.7</v>
+      </c>
+      <c r="G25">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -6893,8 +7063,14 @@
       <c r="E26">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>16.7</v>
+      </c>
+      <c r="G26">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -6910,8 +7086,14 @@
       <c r="E27">
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>16.7</v>
+      </c>
+      <c r="G27">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -6927,8 +7109,14 @@
       <c r="E28">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>16.7</v>
+      </c>
+      <c r="G28">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -6944,8 +7132,14 @@
       <c r="E29">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>16.7</v>
+      </c>
+      <c r="G29">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -6961,8 +7155,14 @@
       <c r="E30">
         <v>0.502</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>16.7</v>
+      </c>
+      <c r="G30">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -6978,8 +7178,14 @@
       <c r="E31">
         <v>0.51300000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>16.7</v>
+      </c>
+      <c r="G31">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -6995,8 +7201,14 @@
       <c r="E32">
         <v>0.46600000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>16.7</v>
+      </c>
+      <c r="G32">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -7012,8 +7224,14 @@
       <c r="E33">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>2.7</v>
+      </c>
+      <c r="G33">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -7029,8 +7247,14 @@
       <c r="E34">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2.7</v>
+      </c>
+      <c r="G34">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -7046,8 +7270,14 @@
       <c r="E35">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2.7</v>
+      </c>
+      <c r="G35">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -7063,8 +7293,14 @@
       <c r="E36">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>2.7</v>
+      </c>
+      <c r="G36">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -7080,8 +7316,14 @@
       <c r="E37">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>2.7</v>
+      </c>
+      <c r="G37">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -7097,8 +7339,14 @@
       <c r="E38">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>2.7</v>
+      </c>
+      <c r="G38">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -7114,8 +7362,14 @@
       <c r="E39">
         <v>0.26600000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>2.7</v>
+      </c>
+      <c r="G39">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -7131,8 +7385,14 @@
       <c r="E40">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>2.7</v>
+      </c>
+      <c r="G40">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -7148,8 +7408,14 @@
       <c r="E41">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>2.7</v>
+      </c>
+      <c r="G41">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -7165,8 +7431,14 @@
       <c r="E42">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>2.7</v>
+      </c>
+      <c r="G42">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -7182,8 +7454,14 @@
       <c r="E43">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>2.7</v>
+      </c>
+      <c r="G43">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -7199,8 +7477,14 @@
       <c r="E44">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>2.7</v>
+      </c>
+      <c r="G44">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -7216,8 +7500,14 @@
       <c r="E45">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>2.7</v>
+      </c>
+      <c r="G45">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -7233,8 +7523,14 @@
       <c r="E46">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>2.7</v>
+      </c>
+      <c r="G46">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -7250,8 +7546,14 @@
       <c r="E47">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>2.7</v>
+      </c>
+      <c r="G47">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -7267,8 +7569,14 @@
       <c r="E48">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>7.5</v>
+      </c>
+      <c r="G48">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -7284,8 +7592,14 @@
       <c r="E49">
         <v>0.23599999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>7.5</v>
+      </c>
+      <c r="G49">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -7301,8 +7615,14 @@
       <c r="E50">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>7.5</v>
+      </c>
+      <c r="G50">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -7318,8 +7638,14 @@
       <c r="E51">
         <v>4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>7.5</v>
+      </c>
+      <c r="G51">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -7335,8 +7661,14 @@
       <c r="E52">
         <v>7.3200000000000001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>7.5</v>
+      </c>
+      <c r="G52">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -7352,8 +7684,14 @@
       <c r="E53">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>7.5</v>
+      </c>
+      <c r="G53">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -7369,8 +7707,14 @@
       <c r="E54">
         <v>0.35799999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>7.5</v>
+      </c>
+      <c r="G54">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -7386,8 +7730,14 @@
       <c r="E55">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>7.5</v>
+      </c>
+      <c r="G55">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7403,8 +7753,14 @@
       <c r="E56">
         <v>0.36599999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>7.5</v>
+      </c>
+      <c r="G56">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -7420,8 +7776,14 @@
       <c r="E57">
         <v>0.47899999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>7.5</v>
+      </c>
+      <c r="G57">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -7437,8 +7799,14 @@
       <c r="E58">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>7.5</v>
+      </c>
+      <c r="G58">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -7454,8 +7822,14 @@
       <c r="E59">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>7.5</v>
+      </c>
+      <c r="G59">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -7471,8 +7845,14 @@
       <c r="E60">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>7.5</v>
+      </c>
+      <c r="G60">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -7488,8 +7868,14 @@
       <c r="E61">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>7.5</v>
+      </c>
+      <c r="G61">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -7505,8 +7891,14 @@
       <c r="E62">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>7.5</v>
+      </c>
+      <c r="G62">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -7522,8 +7914,14 @@
       <c r="E63">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G63">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -7539,8 +7937,14 @@
       <c r="E64">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G64">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -7556,8 +7960,14 @@
       <c r="E65">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G65">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7573,8 +7983,14 @@
       <c r="E66">
         <v>4.5400000000000003E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G66">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -7590,8 +8006,14 @@
       <c r="E67">
         <v>4.6199999999999998E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G67">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7607,8 +8029,14 @@
       <c r="E68">
         <v>6.7900000000000002E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G68">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -7624,8 +8052,14 @@
       <c r="E69">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G69">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -7641,8 +8075,14 @@
       <c r="E70">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G70">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -7658,8 +8098,14 @@
       <c r="E71">
         <v>0.317</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G71">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -7675,8 +8121,14 @@
       <c r="E72">
         <v>0.41499999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G72">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -7692,8 +8144,14 @@
       <c r="E73">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G73">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -7709,8 +8167,14 @@
       <c r="E74">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G74">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -7726,8 +8190,14 @@
       <c r="E75">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G75">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -7743,8 +8213,14 @@
       <c r="E76">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G76">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -7759,6 +8235,12 @@
       </c>
       <c r="E77">
         <v>0.45600000000000002</v>
+      </c>
+      <c r="F77">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G77">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/data-dig-prop-stats/dat.xlsx
+++ b/data-dig-prop-stats/dat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/GitHub/Pedersen-2024-MAG/data-dig-prop-stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Documents/GitHub/Pedersen-2025-MAG/data-dig-prop-stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{7A56C225-DD08-4D66-98D8-C216CC569554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4374CC52-357C-47FA-AD62-151D59C509F0}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="8_{7A56C225-DD08-4D66-98D8-C216CC569554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3798FE73-5FC1-5FDE-9258-5F69D6DB3755}"/>
   <bookViews>
-    <workbookView xWindow="-30225" yWindow="150" windowWidth="26310" windowHeight="20220" activeTab="3" xr2:uid="{C233AD18-B618-41A4-BC30-2DA8BD150481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C233AD18-B618-41A4-BC30-2DA8BD150481}"/>
   </bookViews>
   <sheets>
     <sheet name="slurry" sheetId="1" r:id="rId1"/>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219A4E69-9D4D-4283-8C99-A6FA113EB291}">
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6462,8 +6462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD706F-A0B7-4D5E-B189-117437D2C46D}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
